--- a/MySurvivorsGame/Assets/StreamingAssets/PoolData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/PoolData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>CharacterName</t>
   </si>
@@ -19,12 +19,18 @@
     <t>CharacterCount</t>
   </si>
   <si>
+    <t>ObjectPrefabPath</t>
+  </si>
+  <si>
     <t>資料名稱</t>
   </si>
   <si>
     <t>預先生成的數量</t>
   </si>
   <si>
+    <t>物件Prefab位置</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -32,6 +38,9 @@
   </si>
   <si>
     <t>VillagerA</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/NPC/Warrior.prefab</t>
   </si>
   <si>
     <t>VillagerB</t>
@@ -317,6 +326,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.5"/>
     <col customWidth="1" min="2" max="2" width="14.75"/>
+    <col customWidth="1" min="3" max="3" width="31.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -326,85 +336,118 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>200.0</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>100.0</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>100.0</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>200.0</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>100.0</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>40.0</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>40.0</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>20.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
